--- a/Code/Results/Cases/Case_2_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011184700396051</v>
+        <v>1.045270918663713</v>
       </c>
       <c r="D2">
-        <v>1.033527368799042</v>
+        <v>1.053301163299191</v>
       </c>
       <c r="E2">
-        <v>1.029955304246531</v>
+        <v>1.05852125235453</v>
       </c>
       <c r="F2">
-        <v>1.039927944350401</v>
+        <v>1.065833810544642</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055036466480578</v>
+        <v>1.043679157331845</v>
       </c>
       <c r="J2">
-        <v>1.033035948880386</v>
+        <v>1.050331547086078</v>
       </c>
       <c r="K2">
-        <v>1.044538568628294</v>
+        <v>1.056047510103612</v>
       </c>
       <c r="L2">
-        <v>1.041012511086667</v>
+        <v>1.061253259312229</v>
       </c>
       <c r="M2">
-        <v>1.050857693581311</v>
+        <v>1.068545985154074</v>
       </c>
       <c r="N2">
-        <v>1.014289651559261</v>
+        <v>1.020561288360648</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017193057844622</v>
+        <v>1.046498812723691</v>
       </c>
       <c r="D3">
-        <v>1.038223872908498</v>
+        <v>1.054270724515332</v>
       </c>
       <c r="E3">
-        <v>1.034829434285761</v>
+        <v>1.059590870449503</v>
       </c>
       <c r="F3">
-        <v>1.04503546777271</v>
+        <v>1.066927575217535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057050290443756</v>
+        <v>1.043992356127501</v>
       </c>
       <c r="J3">
-        <v>1.037225748823032</v>
+        <v>1.051205660242307</v>
       </c>
       <c r="K3">
-        <v>1.048389960916249</v>
+        <v>1.056829687670067</v>
       </c>
       <c r="L3">
-        <v>1.045035247807729</v>
+        <v>1.062136279030848</v>
       </c>
       <c r="M3">
-        <v>1.055122800114872</v>
+        <v>1.069454530318535</v>
       </c>
       <c r="N3">
-        <v>1.015735975930491</v>
+        <v>1.020858207392284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020983217135199</v>
+        <v>1.047292946319485</v>
       </c>
       <c r="D4">
-        <v>1.041188413236574</v>
+        <v>1.054897543037564</v>
       </c>
       <c r="E4">
-        <v>1.037915622123271</v>
+        <v>1.060283401381104</v>
       </c>
       <c r="F4">
-        <v>1.048264615777087</v>
+        <v>1.067635300539399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058306877108473</v>
+        <v>1.0441931711332</v>
       </c>
       <c r="J4">
-        <v>1.039864985160745</v>
+        <v>1.051770364696209</v>
       </c>
       <c r="K4">
-        <v>1.050813900960746</v>
+        <v>1.05733463875901</v>
       </c>
       <c r="L4">
-        <v>1.047577001336837</v>
+        <v>1.062707468146193</v>
       </c>
       <c r="M4">
-        <v>1.057813440467184</v>
+        <v>1.070041810136158</v>
       </c>
       <c r="N4">
-        <v>1.016646394691693</v>
+        <v>1.021049861860901</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022554280403448</v>
+        <v>1.047626707361436</v>
       </c>
       <c r="D5">
-        <v>1.042417624443985</v>
+        <v>1.055160926064978</v>
       </c>
       <c r="E5">
-        <v>1.039197544369755</v>
+        <v>1.060574641688587</v>
       </c>
       <c r="F5">
-        <v>1.049604782108299</v>
+        <v>1.06793282582675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058824381659425</v>
+        <v>1.044277152243413</v>
       </c>
       <c r="J5">
-        <v>1.040958025936046</v>
+        <v>1.052007550846968</v>
       </c>
       <c r="K5">
-        <v>1.051817244251135</v>
+        <v>1.057546640862179</v>
       </c>
       <c r="L5">
-        <v>1.048631498750331</v>
+        <v>1.062947552667917</v>
       </c>
       <c r="M5">
-        <v>1.058928696271967</v>
+        <v>1.070288557372854</v>
       </c>
       <c r="N5">
-        <v>1.017023278276589</v>
+        <v>1.021130320691089</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022816789462622</v>
+        <v>1.047682741931958</v>
       </c>
       <c r="D6">
-        <v>1.042623033182309</v>
+        <v>1.055205141546468</v>
       </c>
       <c r="E6">
-        <v>1.039411894624969</v>
+        <v>1.060623548116765</v>
       </c>
       <c r="F6">
-        <v>1.049828804978104</v>
+        <v>1.067982781512098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058910651908254</v>
+        <v>1.044291227159497</v>
       </c>
       <c r="J6">
-        <v>1.041140604727011</v>
+        <v>1.052047362834444</v>
       </c>
       <c r="K6">
-        <v>1.051984808256151</v>
+        <v>1.05758222059066</v>
       </c>
       <c r="L6">
-        <v>1.048807746068198</v>
+        <v>1.062987861388747</v>
       </c>
       <c r="M6">
-        <v>1.059115039548354</v>
+        <v>1.07032997882694</v>
       </c>
       <c r="N6">
-        <v>1.017086221848467</v>
+        <v>1.021143823481816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021004296112526</v>
+        <v>1.047297406412611</v>
       </c>
       <c r="D7">
-        <v>1.041204904200141</v>
+        <v>1.054901062890146</v>
       </c>
       <c r="E7">
-        <v>1.037932811289055</v>
+        <v>1.060287292553488</v>
       </c>
       <c r="F7">
-        <v>1.048282590404269</v>
+        <v>1.067639276095432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058313833859737</v>
+        <v>1.044194295027393</v>
       </c>
       <c r="J7">
-        <v>1.039879654335931</v>
+        <v>1.051773534834962</v>
       </c>
       <c r="K7">
-        <v>1.050827368484033</v>
+        <v>1.057337472638115</v>
       </c>
       <c r="L7">
-        <v>1.047591146043487</v>
+        <v>1.062710676337055</v>
       </c>
       <c r="M7">
-        <v>1.057828404149137</v>
+        <v>1.070045107754415</v>
       </c>
       <c r="N7">
-        <v>1.016651453338975</v>
+        <v>1.021050937398236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013236131593473</v>
+        <v>1.045685974447794</v>
       </c>
       <c r="D8">
-        <v>1.035130438256003</v>
+        <v>1.053628945899749</v>
       </c>
       <c r="E8">
-        <v>1.031616990445779</v>
+        <v>1.058882648916726</v>
       </c>
       <c r="F8">
-        <v>1.041670221986795</v>
+        <v>1.066203456733056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055726902245404</v>
+        <v>1.043785386655794</v>
       </c>
       <c r="J8">
-        <v>1.034467226934439</v>
+        <v>1.05062714581749</v>
       </c>
       <c r="K8">
-        <v>1.04585467724959</v>
+        <v>1.056312093428711</v>
       </c>
       <c r="L8">
-        <v>1.04238506573662</v>
+        <v>1.061551718352761</v>
       </c>
       <c r="M8">
-        <v>1.052313845268797</v>
+        <v>1.068853158935763</v>
       </c>
       <c r="N8">
-        <v>1.014783860448137</v>
+        <v>1.020661731442771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9987482824767552</v>
+        <v>1.042843299489953</v>
       </c>
       <c r="D9">
-        <v>1.023820997514698</v>
+        <v>1.051383047033387</v>
       </c>
       <c r="E9">
-        <v>1.01993550191194</v>
+        <v>1.056410650054133</v>
       </c>
       <c r="F9">
-        <v>1.029400833681798</v>
+        <v>1.063673218759903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050794546146736</v>
+        <v>1.043050688589259</v>
       </c>
       <c r="J9">
-        <v>1.024345319678142</v>
+        <v>1.048600078907869</v>
       </c>
       <c r="K9">
-        <v>1.036539066427066</v>
+        <v>1.05449624660976</v>
       </c>
       <c r="L9">
-        <v>1.032713212642938</v>
+        <v>1.059508052319944</v>
       </c>
       <c r="M9">
-        <v>1.042034255772654</v>
+        <v>1.066748089092113</v>
       </c>
       <c r="N9">
-        <v>1.011286530929751</v>
+        <v>1.019972272694838</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9884735056542906</v>
+        <v>1.040945948093946</v>
       </c>
       <c r="D10">
-        <v>1.015820088229459</v>
+        <v>1.049882860109249</v>
       </c>
       <c r="E10">
-        <v>1.011725320934124</v>
+        <v>1.054764736130864</v>
       </c>
       <c r="F10">
-        <v>1.020749206643299</v>
+        <v>1.061986243828227</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047227798825891</v>
+        <v>1.042551354569129</v>
       </c>
       <c r="J10">
-        <v>1.017152026438987</v>
+        <v>1.047243933225962</v>
       </c>
       <c r="K10">
-        <v>1.029909462497937</v>
+        <v>1.053279579287949</v>
       </c>
       <c r="L10">
-        <v>1.025886049824324</v>
+        <v>1.058144603505371</v>
       </c>
       <c r="M10">
-        <v>1.034753668252557</v>
+        <v>1.065341495484183</v>
       </c>
       <c r="N10">
-        <v>1.00879868465821</v>
+        <v>1.0195101747408</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9838584085049255</v>
+        <v>1.040123813526036</v>
       </c>
       <c r="D11">
-        <v>1.012232607743516</v>
+        <v>1.049232557055192</v>
       </c>
       <c r="E11">
-        <v>1.008057203892879</v>
+        <v>1.054052521748431</v>
       </c>
       <c r="F11">
-        <v>1.016876771074239</v>
+        <v>1.061255716331118</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045610481524726</v>
+        <v>1.042332870258391</v>
       </c>
       <c r="J11">
-        <v>1.013918463209331</v>
+        <v>1.046655559316442</v>
       </c>
       <c r="K11">
-        <v>1.026927464152892</v>
+        <v>1.052751288673292</v>
       </c>
       <c r="L11">
-        <v>1.022828756113704</v>
+        <v>1.057553966905679</v>
       </c>
       <c r="M11">
-        <v>1.031487283147689</v>
+        <v>1.06473165036167</v>
       </c>
       <c r="N11">
-        <v>1.007679947048238</v>
+        <v>1.01930949338556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9821173174311357</v>
+        <v>1.039818347947937</v>
       </c>
       <c r="D12">
-        <v>1.010880284215444</v>
+        <v>1.048990897329572</v>
       </c>
       <c r="E12">
-        <v>1.006676505791794</v>
+        <v>1.053788044337772</v>
       </c>
       <c r="F12">
-        <v>1.015418064413174</v>
+        <v>1.060984356190479</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044998139195071</v>
+        <v>1.042251373948367</v>
       </c>
       <c r="J12">
-        <v>1.012698272071341</v>
+        <v>1.046436836122032</v>
       </c>
       <c r="K12">
-        <v>1.025801962202985</v>
+        <v>1.052554836613945</v>
       </c>
       <c r="L12">
-        <v>1.021676902657793</v>
+        <v>1.057334539024773</v>
       </c>
       <c r="M12">
-        <v>1.030255722211153</v>
+        <v>1.064505008251486</v>
       </c>
       <c r="N12">
-        <v>1.007257747344492</v>
+        <v>1.019234862328087</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.982492034335124</v>
+        <v>1.039883875386182</v>
       </c>
       <c r="D13">
-        <v>1.011171279066743</v>
+        <v>1.049042739077689</v>
       </c>
       <c r="E13">
-        <v>1.006973514335068</v>
+        <v>1.053844772455509</v>
       </c>
       <c r="F13">
-        <v>1.015731904153781</v>
+        <v>1.061042564321067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045130024654966</v>
+        <v>1.042268870646558</v>
       </c>
       <c r="J13">
-        <v>1.012960893038942</v>
+        <v>1.04648376093082</v>
       </c>
       <c r="K13">
-        <v>1.026044213488456</v>
+        <v>1.052596986285987</v>
       </c>
       <c r="L13">
-        <v>1.021924731938518</v>
+        <v>1.057381608837008</v>
       </c>
       <c r="M13">
-        <v>1.030520743562069</v>
+        <v>1.06455362913376</v>
       </c>
       <c r="N13">
-        <v>1.007348618741107</v>
+        <v>1.019250874980845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.983715048484621</v>
+        <v>1.040098565460983</v>
       </c>
       <c r="D14">
-        <v>1.012121235530747</v>
+        <v>1.049212583601532</v>
       </c>
       <c r="E14">
-        <v>1.007943453561131</v>
+        <v>1.054030658526099</v>
       </c>
       <c r="F14">
-        <v>1.016756616532478</v>
+        <v>1.061233285822442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045560105693626</v>
+        <v>1.042326140717918</v>
       </c>
       <c r="J14">
-        <v>1.013817999168192</v>
+        <v>1.046637483166529</v>
       </c>
       <c r="K14">
-        <v>1.026834800960732</v>
+        <v>1.052735054408354</v>
       </c>
       <c r="L14">
-        <v>1.022733881241919</v>
+        <v>1.057535829732747</v>
       </c>
       <c r="M14">
-        <v>1.031385862050853</v>
+        <v>1.064712918477866</v>
       </c>
       <c r="N14">
-        <v>1.00764518612668</v>
+        <v>1.01930332617857</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9844649717032342</v>
+        <v>1.040230831333511</v>
       </c>
       <c r="D15">
-        <v>1.012703874200067</v>
+        <v>1.049317216041999</v>
       </c>
       <c r="E15">
-        <v>1.008538615808027</v>
+        <v>1.054145198411385</v>
       </c>
       <c r="F15">
-        <v>1.017385241644069</v>
+        <v>1.061350794310802</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045823535446242</v>
+        <v>1.042361381428945</v>
       </c>
       <c r="J15">
-        <v>1.014343519880415</v>
+        <v>1.046732173282791</v>
       </c>
       <c r="K15">
-        <v>1.027319506429712</v>
+        <v>1.052820093361046</v>
       </c>
       <c r="L15">
-        <v>1.023230239938455</v>
+        <v>1.057630845100332</v>
       </c>
       <c r="M15">
-        <v>1.031916430702204</v>
+        <v>1.064811046165286</v>
       </c>
       <c r="N15">
-        <v>1.0078270165859</v>
+        <v>1.01933563127711</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9887761387806706</v>
+        <v>1.041000498239351</v>
       </c>
       <c r="D16">
-        <v>1.016055478070041</v>
+        <v>1.049926003472255</v>
       </c>
       <c r="E16">
-        <v>1.011966279051105</v>
+        <v>1.054812013425152</v>
       </c>
       <c r="F16">
-        <v>1.021003435880879</v>
+        <v>1.062034725240876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047333545238273</v>
+        <v>1.042565806792303</v>
       </c>
       <c r="J16">
-        <v>1.017364020004242</v>
+        <v>1.047282957219867</v>
       </c>
       <c r="K16">
-        <v>1.0301049283622</v>
+        <v>1.053314609214027</v>
       </c>
       <c r="L16">
-        <v>1.026086735059854</v>
+        <v>1.058183796673323</v>
       </c>
       <c r="M16">
-        <v>1.034967951057078</v>
+        <v>1.065381952346024</v>
       </c>
       <c r="N16">
-        <v>1.008872022788523</v>
+        <v>1.019523480835389</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9914346862720411</v>
+        <v>1.04148313572539</v>
       </c>
       <c r="D17">
-        <v>1.018124038914633</v>
+        <v>1.050307688208396</v>
       </c>
       <c r="E17">
-        <v>1.014085273734116</v>
+        <v>1.055230415943164</v>
       </c>
       <c r="F17">
-        <v>1.023238327584213</v>
+        <v>1.062463721108761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048260781282849</v>
+        <v>1.042693429449529</v>
       </c>
       <c r="J17">
-        <v>1.019226043221413</v>
+        <v>1.047628139399687</v>
       </c>
       <c r="K17">
-        <v>1.031821579301069</v>
+        <v>1.053624412701192</v>
       </c>
       <c r="L17">
-        <v>1.027850763470809</v>
+        <v>1.058530579843545</v>
       </c>
       <c r="M17">
-        <v>1.036850814250106</v>
+        <v>1.065739856841186</v>
       </c>
       <c r="N17">
-        <v>1.009516138394677</v>
+        <v>1.019641155658015</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9929694878731519</v>
+        <v>1.041764595301238</v>
       </c>
       <c r="D18">
-        <v>1.01931881783225</v>
+        <v>1.050530249822687</v>
       </c>
       <c r="E18">
-        <v>1.015310426930249</v>
+        <v>1.055474509164085</v>
       </c>
       <c r="F18">
-        <v>1.024529820891326</v>
+        <v>1.062713941802709</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048794636255101</v>
+        <v>1.042767650662279</v>
       </c>
       <c r="J18">
-        <v>1.020300756146493</v>
+        <v>1.047829367100005</v>
       </c>
       <c r="K18">
-        <v>1.032812212175295</v>
+        <v>1.053804974504363</v>
       </c>
       <c r="L18">
-        <v>1.028870014015959</v>
+        <v>1.058732828132239</v>
       </c>
       <c r="M18">
-        <v>1.037938157522851</v>
+        <v>1.065948541221986</v>
       </c>
       <c r="N18">
-        <v>1.00988786787151</v>
+        <v>1.019709736505565</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9934901757250465</v>
+        <v>1.041860556546039</v>
       </c>
       <c r="D19">
-        <v>1.019724246035224</v>
+        <v>1.050606125976101</v>
       </c>
       <c r="E19">
-        <v>1.015726372105051</v>
+        <v>1.055557746494534</v>
       </c>
       <c r="F19">
-        <v>1.024968176423864</v>
+        <v>1.062799259725002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048975500694738</v>
+        <v>1.042792921061066</v>
       </c>
       <c r="J19">
-        <v>1.020665312313584</v>
+        <v>1.047897961726842</v>
       </c>
       <c r="K19">
-        <v>1.033148216668293</v>
+        <v>1.053866517477164</v>
       </c>
       <c r="L19">
-        <v>1.029215940986604</v>
+        <v>1.058801785450214</v>
       </c>
       <c r="M19">
-        <v>1.038307098743365</v>
+        <v>1.066019684473065</v>
       </c>
       <c r="N19">
-        <v>1.010013956301343</v>
+        <v>1.019733111166689</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9911511053280649</v>
+        <v>1.041431358970027</v>
       </c>
       <c r="D20">
-        <v>1.017903329050578</v>
+        <v>1.050266744157354</v>
       </c>
       <c r="E20">
-        <v>1.013859053269802</v>
+        <v>1.055185520551172</v>
       </c>
       <c r="F20">
-        <v>1.022999803805701</v>
+        <v>1.062417694474285</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048162024719086</v>
+        <v>1.04267975939506</v>
       </c>
       <c r="J20">
-        <v>1.019027450837781</v>
+        <v>1.047591116135367</v>
       </c>
       <c r="K20">
-        <v>1.031638509380145</v>
+        <v>1.053591188346904</v>
       </c>
       <c r="L20">
-        <v>1.027662508175428</v>
+        <v>1.058493375829754</v>
       </c>
       <c r="M20">
-        <v>1.036649936325407</v>
+        <v>1.065701464869457</v>
       </c>
       <c r="N20">
-        <v>1.009447444648967</v>
+        <v>1.019628536150668</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9833556583211123</v>
+        <v>1.040035347041477</v>
       </c>
       <c r="D21">
-        <v>1.011842053855951</v>
+        <v>1.049162571619634</v>
       </c>
       <c r="E21">
-        <v>1.007658343236538</v>
+        <v>1.053975917766963</v>
       </c>
       <c r="F21">
-        <v>1.016455436454401</v>
+        <v>1.061177123371829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045433783243477</v>
+        <v>1.042309285541162</v>
       </c>
       <c r="J21">
-        <v>1.013566140740145</v>
+        <v>1.04659222064103</v>
       </c>
       <c r="K21">
-        <v>1.026602495152455</v>
+        <v>1.052694402909123</v>
       </c>
       <c r="L21">
-        <v>1.022496064146641</v>
+        <v>1.057490416611183</v>
       </c>
       <c r="M21">
-        <v>1.031131620857132</v>
+        <v>1.064666015016234</v>
       </c>
       <c r="N21">
-        <v>1.007558041581945</v>
+        <v>1.019287883070396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9782979911206586</v>
+        <v>1.039157107315078</v>
       </c>
       <c r="D22">
-        <v>1.007915953158013</v>
+        <v>1.048467707804029</v>
       </c>
       <c r="E22">
-        <v>1.003653747453499</v>
+        <v>1.053215801178474</v>
       </c>
       <c r="F22">
-        <v>1.012222450570542</v>
+        <v>1.060397070323719</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04365095499098</v>
+        <v>1.042074377778367</v>
       </c>
       <c r="J22">
-        <v>1.010021168862063</v>
+        <v>1.04596316254029</v>
       </c>
       <c r="K22">
-        <v>1.023332207805076</v>
+        <v>1.052129276737408</v>
       </c>
       <c r="L22">
-        <v>1.019153168729435</v>
+        <v>1.056859589360621</v>
       </c>
       <c r="M22">
-        <v>1.02755560556828</v>
+        <v>1.064014300531744</v>
       </c>
       <c r="N22">
-        <v>1.006331381546897</v>
+        <v>1.019073185424504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9809946601915126</v>
+        <v>1.039622728219055</v>
       </c>
       <c r="D23">
-        <v>1.010008631052882</v>
+        <v>1.048836128073835</v>
       </c>
       <c r="E23">
-        <v>1.005787138679119</v>
+        <v>1.053618714951518</v>
       </c>
       <c r="F23">
-        <v>1.014478133172141</v>
+        <v>1.060810597005338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044602694908676</v>
+        <v>1.042199094332305</v>
       </c>
       <c r="J23">
-        <v>1.011911419490733</v>
+        <v>1.046296734675438</v>
       </c>
       <c r="K23">
-        <v>1.025076108087903</v>
+        <v>1.052428982697848</v>
       </c>
       <c r="L23">
-        <v>1.020934640784633</v>
+        <v>1.057194024655858</v>
       </c>
       <c r="M23">
-        <v>1.029461830783672</v>
+        <v>1.064359852135192</v>
       </c>
       <c r="N23">
-        <v>1.006985477909011</v>
+        <v>1.019187049723865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9912792922969752</v>
+        <v>1.041454754826091</v>
       </c>
       <c r="D24">
-        <v>1.018003094639084</v>
+        <v>1.050285245223784</v>
       </c>
       <c r="E24">
-        <v>1.013961305909699</v>
+        <v>1.055205806703988</v>
       </c>
       <c r="F24">
-        <v>1.023107619669279</v>
+        <v>1.062438491945833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04820667010059</v>
+        <v>1.04268593698074</v>
       </c>
       <c r="J24">
-        <v>1.019117221243389</v>
+        <v>1.047607845698582</v>
       </c>
       <c r="K24">
-        <v>1.031721263658275</v>
+        <v>1.053606201439239</v>
       </c>
       <c r="L24">
-        <v>1.02774760246859</v>
+        <v>1.058510186797873</v>
       </c>
       <c r="M24">
-        <v>1.03674073800716</v>
+        <v>1.065718812781548</v>
       </c>
       <c r="N24">
-        <v>1.009478496640341</v>
+        <v>1.019634238538637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002596145464488</v>
+        <v>1.043578583214276</v>
       </c>
       <c r="D25">
-        <v>1.026821804069687</v>
+        <v>1.051964176673891</v>
       </c>
       <c r="E25">
-        <v>1.023025899499947</v>
+        <v>1.057049350425091</v>
       </c>
       <c r="F25">
-        <v>1.032651502177259</v>
+        <v>1.064327368235798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052116632477992</v>
+        <v>1.04324230466898</v>
       </c>
       <c r="J25">
-        <v>1.027036453726828</v>
+        <v>1.049124959275396</v>
       </c>
       <c r="K25">
-        <v>1.039017540513562</v>
+        <v>1.05496675825547</v>
       </c>
       <c r="L25">
-        <v>1.03527698242156</v>
+        <v>1.060036563074333</v>
       </c>
       <c r="M25">
-        <v>1.044763241269703</v>
+        <v>1.067292862760614</v>
       </c>
       <c r="N25">
-        <v>1.012216843825475</v>
+        <v>1.020150946251623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045270918663713</v>
+        <v>1.011184700396052</v>
       </c>
       <c r="D2">
-        <v>1.053301163299191</v>
+        <v>1.033527368799043</v>
       </c>
       <c r="E2">
-        <v>1.05852125235453</v>
+        <v>1.029955304246531</v>
       </c>
       <c r="F2">
-        <v>1.065833810544642</v>
+        <v>1.039927944350401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043679157331845</v>
+        <v>1.055036466480578</v>
       </c>
       <c r="J2">
-        <v>1.050331547086078</v>
+        <v>1.033035948880387</v>
       </c>
       <c r="K2">
-        <v>1.056047510103612</v>
+        <v>1.044538568628295</v>
       </c>
       <c r="L2">
-        <v>1.061253259312229</v>
+        <v>1.041012511086668</v>
       </c>
       <c r="M2">
-        <v>1.068545985154074</v>
+        <v>1.050857693581311</v>
       </c>
       <c r="N2">
-        <v>1.020561288360648</v>
+        <v>1.014289651559262</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046498812723691</v>
+        <v>1.017193057844622</v>
       </c>
       <c r="D3">
-        <v>1.054270724515332</v>
+        <v>1.038223872908498</v>
       </c>
       <c r="E3">
-        <v>1.059590870449503</v>
+        <v>1.034829434285761</v>
       </c>
       <c r="F3">
-        <v>1.066927575217535</v>
+        <v>1.04503546777271</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043992356127501</v>
+        <v>1.057050290443756</v>
       </c>
       <c r="J3">
-        <v>1.051205660242307</v>
+        <v>1.037225748823032</v>
       </c>
       <c r="K3">
-        <v>1.056829687670067</v>
+        <v>1.04838996091625</v>
       </c>
       <c r="L3">
-        <v>1.062136279030848</v>
+        <v>1.045035247807729</v>
       </c>
       <c r="M3">
-        <v>1.069454530318535</v>
+        <v>1.055122800114872</v>
       </c>
       <c r="N3">
-        <v>1.020858207392284</v>
+        <v>1.015735975930491</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047292946319485</v>
+        <v>1.020983217135199</v>
       </c>
       <c r="D4">
-        <v>1.054897543037564</v>
+        <v>1.041188413236573</v>
       </c>
       <c r="E4">
-        <v>1.060283401381104</v>
+        <v>1.037915622123271</v>
       </c>
       <c r="F4">
-        <v>1.067635300539399</v>
+        <v>1.048264615777088</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0441931711332</v>
+        <v>1.058306877108473</v>
       </c>
       <c r="J4">
-        <v>1.051770364696209</v>
+        <v>1.039864985160745</v>
       </c>
       <c r="K4">
-        <v>1.05733463875901</v>
+        <v>1.050813900960746</v>
       </c>
       <c r="L4">
-        <v>1.062707468146193</v>
+        <v>1.047577001336837</v>
       </c>
       <c r="M4">
-        <v>1.070041810136158</v>
+        <v>1.057813440467184</v>
       </c>
       <c r="N4">
-        <v>1.021049861860901</v>
+        <v>1.016646394691694</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047626707361436</v>
+        <v>1.022554280403449</v>
       </c>
       <c r="D5">
-        <v>1.055160926064978</v>
+        <v>1.042417624443986</v>
       </c>
       <c r="E5">
-        <v>1.060574641688587</v>
+        <v>1.039197544369755</v>
       </c>
       <c r="F5">
-        <v>1.06793282582675</v>
+        <v>1.049604782108299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044277152243413</v>
+        <v>1.058824381659425</v>
       </c>
       <c r="J5">
-        <v>1.052007550846968</v>
+        <v>1.040958025936047</v>
       </c>
       <c r="K5">
-        <v>1.057546640862179</v>
+        <v>1.051817244251135</v>
       </c>
       <c r="L5">
-        <v>1.062947552667917</v>
+        <v>1.048631498750331</v>
       </c>
       <c r="M5">
-        <v>1.070288557372854</v>
+        <v>1.058928696271967</v>
       </c>
       <c r="N5">
-        <v>1.021130320691089</v>
+        <v>1.017023278276589</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047682741931958</v>
+        <v>1.022816789462621</v>
       </c>
       <c r="D6">
-        <v>1.055205141546468</v>
+        <v>1.042623033182309</v>
       </c>
       <c r="E6">
-        <v>1.060623548116765</v>
+        <v>1.039411894624968</v>
       </c>
       <c r="F6">
-        <v>1.067982781512098</v>
+        <v>1.049828804978103</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044291227159497</v>
+        <v>1.058910651908253</v>
       </c>
       <c r="J6">
-        <v>1.052047362834444</v>
+        <v>1.04114060472701</v>
       </c>
       <c r="K6">
-        <v>1.05758222059066</v>
+        <v>1.05198480825615</v>
       </c>
       <c r="L6">
-        <v>1.062987861388747</v>
+        <v>1.048807746068197</v>
       </c>
       <c r="M6">
-        <v>1.07032997882694</v>
+        <v>1.059115039548352</v>
       </c>
       <c r="N6">
-        <v>1.021143823481816</v>
+        <v>1.017086221848467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047297406412611</v>
+        <v>1.021004296112525</v>
       </c>
       <c r="D7">
-        <v>1.054901062890146</v>
+        <v>1.041204904200141</v>
       </c>
       <c r="E7">
-        <v>1.060287292553488</v>
+        <v>1.037932811289055</v>
       </c>
       <c r="F7">
-        <v>1.067639276095432</v>
+        <v>1.048282590404269</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044194295027393</v>
+        <v>1.058313833859737</v>
       </c>
       <c r="J7">
-        <v>1.051773534834962</v>
+        <v>1.039879654335931</v>
       </c>
       <c r="K7">
-        <v>1.057337472638115</v>
+        <v>1.050827368484032</v>
       </c>
       <c r="L7">
-        <v>1.062710676337055</v>
+        <v>1.047591146043487</v>
       </c>
       <c r="M7">
-        <v>1.070045107754415</v>
+        <v>1.057828404149137</v>
       </c>
       <c r="N7">
-        <v>1.021050937398236</v>
+        <v>1.016651453338975</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045685974447794</v>
+        <v>1.013236131593473</v>
       </c>
       <c r="D8">
-        <v>1.053628945899749</v>
+        <v>1.035130438256004</v>
       </c>
       <c r="E8">
-        <v>1.058882648916726</v>
+        <v>1.031616990445779</v>
       </c>
       <c r="F8">
-        <v>1.066203456733056</v>
+        <v>1.041670221986795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043785386655794</v>
+        <v>1.055726902245404</v>
       </c>
       <c r="J8">
-        <v>1.05062714581749</v>
+        <v>1.03446722693444</v>
       </c>
       <c r="K8">
-        <v>1.056312093428711</v>
+        <v>1.045854677249591</v>
       </c>
       <c r="L8">
-        <v>1.061551718352761</v>
+        <v>1.042385065736621</v>
       </c>
       <c r="M8">
-        <v>1.068853158935763</v>
+        <v>1.052313845268798</v>
       </c>
       <c r="N8">
-        <v>1.020661731442771</v>
+        <v>1.014783860448138</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042843299489953</v>
+        <v>0.9987482824767563</v>
       </c>
       <c r="D9">
-        <v>1.051383047033387</v>
+        <v>1.023820997514699</v>
       </c>
       <c r="E9">
-        <v>1.056410650054133</v>
+        <v>1.019935501911941</v>
       </c>
       <c r="F9">
-        <v>1.063673218759903</v>
+        <v>1.029400833681799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043050688589259</v>
+        <v>1.050794546146737</v>
       </c>
       <c r="J9">
-        <v>1.048600078907869</v>
+        <v>1.024345319678143</v>
       </c>
       <c r="K9">
-        <v>1.05449624660976</v>
+        <v>1.036539066427066</v>
       </c>
       <c r="L9">
-        <v>1.059508052319944</v>
+        <v>1.032713212642938</v>
       </c>
       <c r="M9">
-        <v>1.066748089092113</v>
+        <v>1.042034255772655</v>
       </c>
       <c r="N9">
-        <v>1.019972272694838</v>
+        <v>1.011286530929752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040945948093946</v>
+        <v>0.988473505654291</v>
       </c>
       <c r="D10">
-        <v>1.049882860109249</v>
+        <v>1.015820088229459</v>
       </c>
       <c r="E10">
-        <v>1.054764736130864</v>
+        <v>1.011725320934124</v>
       </c>
       <c r="F10">
-        <v>1.061986243828227</v>
+        <v>1.020749206643299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042551354569129</v>
+        <v>1.047227798825892</v>
       </c>
       <c r="J10">
-        <v>1.047243933225962</v>
+        <v>1.017152026438987</v>
       </c>
       <c r="K10">
-        <v>1.053279579287949</v>
+        <v>1.029909462497938</v>
       </c>
       <c r="L10">
-        <v>1.058144603505371</v>
+        <v>1.025886049824324</v>
       </c>
       <c r="M10">
-        <v>1.065341495484183</v>
+        <v>1.034753668252558</v>
       </c>
       <c r="N10">
-        <v>1.0195101747408</v>
+        <v>1.00879868465821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040123813526036</v>
+        <v>0.9838584085049253</v>
       </c>
       <c r="D11">
-        <v>1.049232557055192</v>
+        <v>1.012232607743515</v>
       </c>
       <c r="E11">
-        <v>1.054052521748431</v>
+        <v>1.008057203892879</v>
       </c>
       <c r="F11">
-        <v>1.061255716331118</v>
+        <v>1.016876771074238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042332870258391</v>
+        <v>1.045610481524726</v>
       </c>
       <c r="J11">
-        <v>1.046655559316442</v>
+        <v>1.013918463209331</v>
       </c>
       <c r="K11">
-        <v>1.052751288673292</v>
+        <v>1.026927464152892</v>
       </c>
       <c r="L11">
-        <v>1.057553966905679</v>
+        <v>1.022828756113704</v>
       </c>
       <c r="M11">
-        <v>1.06473165036167</v>
+        <v>1.031487283147689</v>
       </c>
       <c r="N11">
-        <v>1.01930949338556</v>
+        <v>1.007679947048238</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039818347947937</v>
+        <v>0.9821173174311352</v>
       </c>
       <c r="D12">
-        <v>1.048990897329572</v>
+        <v>1.010880284215444</v>
       </c>
       <c r="E12">
-        <v>1.053788044337772</v>
+        <v>1.006676505791794</v>
       </c>
       <c r="F12">
-        <v>1.060984356190479</v>
+        <v>1.015418064413175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042251373948367</v>
+        <v>1.044998139195071</v>
       </c>
       <c r="J12">
-        <v>1.046436836122032</v>
+        <v>1.012698272071341</v>
       </c>
       <c r="K12">
-        <v>1.052554836613945</v>
+        <v>1.025801962202984</v>
       </c>
       <c r="L12">
-        <v>1.057334539024773</v>
+        <v>1.021676902657793</v>
       </c>
       <c r="M12">
-        <v>1.064505008251486</v>
+        <v>1.030255722211153</v>
       </c>
       <c r="N12">
-        <v>1.019234862328087</v>
+        <v>1.007257747344492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039883875386182</v>
+        <v>0.9824920343351244</v>
       </c>
       <c r="D13">
-        <v>1.049042739077689</v>
+        <v>1.011171279066744</v>
       </c>
       <c r="E13">
-        <v>1.053844772455509</v>
+        <v>1.006973514335069</v>
       </c>
       <c r="F13">
-        <v>1.061042564321067</v>
+        <v>1.015731904153782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042268870646558</v>
+        <v>1.045130024654967</v>
       </c>
       <c r="J13">
-        <v>1.04648376093082</v>
+        <v>1.012960893038943</v>
       </c>
       <c r="K13">
-        <v>1.052596986285987</v>
+        <v>1.026044213488456</v>
       </c>
       <c r="L13">
-        <v>1.057381608837008</v>
+        <v>1.021924731938519</v>
       </c>
       <c r="M13">
-        <v>1.06455362913376</v>
+        <v>1.03052074356207</v>
       </c>
       <c r="N13">
-        <v>1.019250874980845</v>
+        <v>1.007348618741107</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040098565460983</v>
+        <v>0.9837150484846221</v>
       </c>
       <c r="D14">
-        <v>1.049212583601532</v>
+        <v>1.012121235530747</v>
       </c>
       <c r="E14">
-        <v>1.054030658526099</v>
+        <v>1.007943453561132</v>
       </c>
       <c r="F14">
-        <v>1.061233285822442</v>
+        <v>1.016756616532479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042326140717918</v>
+        <v>1.045560105693626</v>
       </c>
       <c r="J14">
-        <v>1.046637483166529</v>
+        <v>1.013817999168193</v>
       </c>
       <c r="K14">
-        <v>1.052735054408354</v>
+        <v>1.026834800960732</v>
       </c>
       <c r="L14">
-        <v>1.057535829732747</v>
+        <v>1.02273388124192</v>
       </c>
       <c r="M14">
-        <v>1.064712918477866</v>
+        <v>1.031385862050854</v>
       </c>
       <c r="N14">
-        <v>1.01930332617857</v>
+        <v>1.007645186126681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040230831333511</v>
+        <v>0.9844649717032354</v>
       </c>
       <c r="D15">
-        <v>1.049317216041999</v>
+        <v>1.012703874200068</v>
       </c>
       <c r="E15">
-        <v>1.054145198411385</v>
+        <v>1.008538615808028</v>
       </c>
       <c r="F15">
-        <v>1.061350794310802</v>
+        <v>1.01738524164407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042361381428945</v>
+        <v>1.045823535446242</v>
       </c>
       <c r="J15">
-        <v>1.046732173282791</v>
+        <v>1.014343519880416</v>
       </c>
       <c r="K15">
-        <v>1.052820093361046</v>
+        <v>1.027319506429713</v>
       </c>
       <c r="L15">
-        <v>1.057630845100332</v>
+        <v>1.023230239938457</v>
       </c>
       <c r="M15">
-        <v>1.064811046165286</v>
+        <v>1.031916430702205</v>
       </c>
       <c r="N15">
-        <v>1.01933563127711</v>
+        <v>1.0078270165859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041000498239351</v>
+        <v>0.9887761387806714</v>
       </c>
       <c r="D16">
-        <v>1.049926003472255</v>
+        <v>1.016055478070041</v>
       </c>
       <c r="E16">
-        <v>1.054812013425152</v>
+        <v>1.011966279051105</v>
       </c>
       <c r="F16">
-        <v>1.062034725240876</v>
+        <v>1.021003435880879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042565806792303</v>
+        <v>1.047333545238273</v>
       </c>
       <c r="J16">
-        <v>1.047282957219867</v>
+        <v>1.017364020004243</v>
       </c>
       <c r="K16">
-        <v>1.053314609214027</v>
+        <v>1.030104928362201</v>
       </c>
       <c r="L16">
-        <v>1.058183796673323</v>
+        <v>1.026086735059854</v>
       </c>
       <c r="M16">
-        <v>1.065381952346024</v>
+        <v>1.034967951057079</v>
       </c>
       <c r="N16">
-        <v>1.019523480835389</v>
+        <v>1.008872022788523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04148313572539</v>
+        <v>0.9914346862720403</v>
       </c>
       <c r="D17">
-        <v>1.050307688208396</v>
+        <v>1.018124038914632</v>
       </c>
       <c r="E17">
-        <v>1.055230415943164</v>
+        <v>1.014085273734116</v>
       </c>
       <c r="F17">
-        <v>1.062463721108761</v>
+        <v>1.023238327584213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042693429449529</v>
+        <v>1.048260781282849</v>
       </c>
       <c r="J17">
-        <v>1.047628139399687</v>
+        <v>1.019226043221412</v>
       </c>
       <c r="K17">
-        <v>1.053624412701192</v>
+        <v>1.031821579301068</v>
       </c>
       <c r="L17">
-        <v>1.058530579843545</v>
+        <v>1.027850763470809</v>
       </c>
       <c r="M17">
-        <v>1.065739856841186</v>
+        <v>1.036850814250106</v>
       </c>
       <c r="N17">
-        <v>1.019641155658015</v>
+        <v>1.009516138394677</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041764595301238</v>
+        <v>0.9929694878731521</v>
       </c>
       <c r="D18">
-        <v>1.050530249822687</v>
+        <v>1.019318817832251</v>
       </c>
       <c r="E18">
-        <v>1.055474509164085</v>
+        <v>1.015310426930249</v>
       </c>
       <c r="F18">
-        <v>1.062713941802709</v>
+        <v>1.024529820891326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042767650662279</v>
+        <v>1.048794636255101</v>
       </c>
       <c r="J18">
-        <v>1.047829367100005</v>
+        <v>1.020300756146493</v>
       </c>
       <c r="K18">
-        <v>1.053804974504363</v>
+        <v>1.032812212175295</v>
       </c>
       <c r="L18">
-        <v>1.058732828132239</v>
+        <v>1.02887001401596</v>
       </c>
       <c r="M18">
-        <v>1.065948541221986</v>
+        <v>1.037938157522851</v>
       </c>
       <c r="N18">
-        <v>1.019709736505565</v>
+        <v>1.00988786787151</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041860556546039</v>
+        <v>0.9934901757250466</v>
       </c>
       <c r="D19">
-        <v>1.050606125976101</v>
+        <v>1.019724246035224</v>
       </c>
       <c r="E19">
-        <v>1.055557746494534</v>
+        <v>1.015726372105051</v>
       </c>
       <c r="F19">
-        <v>1.062799259725002</v>
+        <v>1.024968176423863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042792921061066</v>
+        <v>1.048975500694738</v>
       </c>
       <c r="J19">
-        <v>1.047897961726842</v>
+        <v>1.020665312313584</v>
       </c>
       <c r="K19">
-        <v>1.053866517477164</v>
+        <v>1.033148216668293</v>
       </c>
       <c r="L19">
-        <v>1.058801785450214</v>
+        <v>1.029215940986604</v>
       </c>
       <c r="M19">
-        <v>1.066019684473065</v>
+        <v>1.038307098743365</v>
       </c>
       <c r="N19">
-        <v>1.019733111166689</v>
+        <v>1.010013956301343</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041431358970027</v>
+        <v>0.9911511053280651</v>
       </c>
       <c r="D20">
-        <v>1.050266744157354</v>
+        <v>1.017903329050578</v>
       </c>
       <c r="E20">
-        <v>1.055185520551172</v>
+        <v>1.013859053269802</v>
       </c>
       <c r="F20">
-        <v>1.062417694474285</v>
+        <v>1.022999803805701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04267975939506</v>
+        <v>1.048162024719085</v>
       </c>
       <c r="J20">
-        <v>1.047591116135367</v>
+        <v>1.019027450837781</v>
       </c>
       <c r="K20">
-        <v>1.053591188346904</v>
+        <v>1.031638509380145</v>
       </c>
       <c r="L20">
-        <v>1.058493375829754</v>
+        <v>1.027662508175427</v>
       </c>
       <c r="M20">
-        <v>1.065701464869457</v>
+        <v>1.036649936325407</v>
       </c>
       <c r="N20">
-        <v>1.019628536150668</v>
+        <v>1.009447444648967</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040035347041477</v>
+        <v>0.9833556583211117</v>
       </c>
       <c r="D21">
-        <v>1.049162571619634</v>
+        <v>1.01184205385595</v>
       </c>
       <c r="E21">
-        <v>1.053975917766963</v>
+        <v>1.007658343236538</v>
       </c>
       <c r="F21">
-        <v>1.061177123371829</v>
+        <v>1.0164554364544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042309285541162</v>
+        <v>1.045433783243477</v>
       </c>
       <c r="J21">
-        <v>1.04659222064103</v>
+        <v>1.013566140740145</v>
       </c>
       <c r="K21">
-        <v>1.052694402909123</v>
+        <v>1.026602495152454</v>
       </c>
       <c r="L21">
-        <v>1.057490416611183</v>
+        <v>1.02249606414664</v>
       </c>
       <c r="M21">
-        <v>1.064666015016234</v>
+        <v>1.031131620857132</v>
       </c>
       <c r="N21">
-        <v>1.019287883070396</v>
+        <v>1.007558041581945</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039157107315078</v>
+        <v>0.9782979911206576</v>
       </c>
       <c r="D22">
-        <v>1.048467707804029</v>
+        <v>1.007915953158012</v>
       </c>
       <c r="E22">
-        <v>1.053215801178474</v>
+        <v>1.003653747453498</v>
       </c>
       <c r="F22">
-        <v>1.060397070323719</v>
+        <v>1.012222450570541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042074377778367</v>
+        <v>1.04365095499098</v>
       </c>
       <c r="J22">
-        <v>1.04596316254029</v>
+        <v>1.010021168862063</v>
       </c>
       <c r="K22">
-        <v>1.052129276737408</v>
+        <v>1.023332207805075</v>
       </c>
       <c r="L22">
-        <v>1.056859589360621</v>
+        <v>1.019153168729434</v>
       </c>
       <c r="M22">
-        <v>1.064014300531744</v>
+        <v>1.027555605568279</v>
       </c>
       <c r="N22">
-        <v>1.019073185424504</v>
+        <v>1.006331381546897</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039622728219055</v>
+        <v>0.9809946601915128</v>
       </c>
       <c r="D23">
-        <v>1.048836128073835</v>
+        <v>1.010008631052882</v>
       </c>
       <c r="E23">
-        <v>1.053618714951518</v>
+        <v>1.005787138679119</v>
       </c>
       <c r="F23">
-        <v>1.060810597005338</v>
+        <v>1.014478133172141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042199094332305</v>
+        <v>1.044602694908676</v>
       </c>
       <c r="J23">
-        <v>1.046296734675438</v>
+        <v>1.011911419490733</v>
       </c>
       <c r="K23">
-        <v>1.052428982697848</v>
+        <v>1.025076108087903</v>
       </c>
       <c r="L23">
-        <v>1.057194024655858</v>
+        <v>1.020934640784633</v>
       </c>
       <c r="M23">
-        <v>1.064359852135192</v>
+        <v>1.029461830783672</v>
       </c>
       <c r="N23">
-        <v>1.019187049723865</v>
+        <v>1.006985477909011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041454754826091</v>
+        <v>0.9912792922969748</v>
       </c>
       <c r="D24">
-        <v>1.050285245223784</v>
+        <v>1.018003094639084</v>
       </c>
       <c r="E24">
-        <v>1.055205806703988</v>
+        <v>1.013961305909699</v>
       </c>
       <c r="F24">
-        <v>1.062438491945833</v>
+        <v>1.023107619669279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04268593698074</v>
+        <v>1.04820667010059</v>
       </c>
       <c r="J24">
-        <v>1.047607845698582</v>
+        <v>1.019117221243389</v>
       </c>
       <c r="K24">
-        <v>1.053606201439239</v>
+        <v>1.031721263658275</v>
       </c>
       <c r="L24">
-        <v>1.058510186797873</v>
+        <v>1.02774760246859</v>
       </c>
       <c r="M24">
-        <v>1.065718812781548</v>
+        <v>1.03674073800716</v>
       </c>
       <c r="N24">
-        <v>1.019634238538637</v>
+        <v>1.009478496640341</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043578583214276</v>
+        <v>1.002596145464488</v>
       </c>
       <c r="D25">
-        <v>1.051964176673891</v>
+        <v>1.026821804069687</v>
       </c>
       <c r="E25">
-        <v>1.057049350425091</v>
+        <v>1.023025899499947</v>
       </c>
       <c r="F25">
-        <v>1.064327368235798</v>
+        <v>1.032651502177259</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04324230466898</v>
+        <v>1.052116632477992</v>
       </c>
       <c r="J25">
-        <v>1.049124959275396</v>
+        <v>1.027036453726828</v>
       </c>
       <c r="K25">
-        <v>1.05496675825547</v>
+        <v>1.039017540513562</v>
       </c>
       <c r="L25">
-        <v>1.060036563074333</v>
+        <v>1.035276982421559</v>
       </c>
       <c r="M25">
-        <v>1.067292862760614</v>
+        <v>1.044763241269703</v>
       </c>
       <c r="N25">
-        <v>1.020150946251623</v>
+        <v>1.012216843825475</v>
       </c>
     </row>
   </sheetData>
